--- a/opportunities.xlsx
+++ b/opportunities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Apple/Desktop/ivan-assets/StartupPost/awesome-startup-opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A31A6E-A55D-7141-BBA0-1D43A9D18ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BEECC4-28BA-234C-AA6D-E7D80BC8C739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="520" windowWidth="21140" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="452">
   <si>
     <t>id</t>
   </si>
@@ -1168,9 +1168,6 @@
     <t>http://kbs.tec-ftu.com/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/khoinghiepcungkawai</t>
-  </si>
-  <si>
     <t>Future Entrepreneurs Club - Foreign Trade University</t>
   </si>
   <si>
@@ -1189,9 +1186,6 @@
     <t>https://vnexpress.net</t>
   </si>
   <si>
-    <t>https://cdn.vnexpress.net</t>
-  </si>
-  <si>
     <t>National Population Data Center - Police Department of Administrative Management of Social Relations, Hanoi University of Science and Technology, Vietnam Television</t>
   </si>
   <si>
@@ -1213,9 +1207,6 @@
     <t>https://vinuni.edu.vn</t>
   </si>
   <si>
-    <t>https://vinuni.edu.vn/assets/images/logo.png</t>
-  </si>
-  <si>
     <t>VinUni Business Insider</t>
   </si>
   <si>
@@ -1237,9 +1228,6 @@
     <t>https://d-prize.org</t>
   </si>
   <si>
-    <t>https://d-prize.org/images/logo.png</t>
-  </si>
-  <si>
     <t>['Challenge', 'NGO']</t>
   </si>
   <si>
@@ -1261,9 +1249,6 @@
     <t>go.kinhtetre.web4s.com.vn</t>
   </si>
   <si>
-    <t>https://yec-neu.org.vn/assets/images/logo.png</t>
-  </si>
-  <si>
     <t>Young Economists Club - National Economics University</t>
   </si>
   <si>
@@ -1282,9 +1267,6 @@
     <t>https://hku-vn.link/Innovation-Contest-Register</t>
   </si>
   <si>
-    <t>https://hku.vn/images/logo.png</t>
-  </si>
-  <si>
     <t>['Innovation Contest']</t>
   </si>
   <si>
@@ -1303,9 +1285,6 @@
     <t>https://vecom.vn/digital-business-contest</t>
   </si>
   <si>
-    <t>https://vecom.vn/images/logo.png</t>
-  </si>
-  <si>
     <t>['E-commerce', 'Digital Economy']</t>
   </si>
   <si>
@@ -1315,9 +1294,6 @@
     <t>https://bit.ly/SwinBizRockstar_2024_Registration</t>
   </si>
   <si>
-    <t>https://swinburne.edu.vn/assets/images/logo.png</t>
-  </si>
-  <si>
     <t>['Startup Competition']</t>
   </si>
   <si>
@@ -1330,9 +1306,6 @@
     <t>https://hup.edu.vn/mpi2024</t>
   </si>
   <si>
-    <t>https://hup.edu.vn/images/logo.png</t>
-  </si>
-  <si>
     <t>Hanoi University of Pharmacy</t>
   </si>
   <si>
@@ -1351,9 +1324,6 @@
     <t>https://neu.edu.vn/agriup2024</t>
   </si>
   <si>
-    <t>https://neu.edu.vn/images/logo.png</t>
-  </si>
-  <si>
     <t>National Economics University</t>
   </si>
   <si>
@@ -1369,9 +1339,6 @@
     <t>https://startcorpvina.com/cuocthikhoinghiep</t>
   </si>
   <si>
-    <t>https://startcorpvina.com/images/logo.png</t>
-  </si>
-  <si>
     <t>Startup Vina</t>
   </si>
   <si>
@@ -1393,9 +1360,6 @@
     <t>https://ftu.edu.vn/kmac-ftu-2024</t>
   </si>
   <si>
-    <t>https://ftu.edu.vn/images/logo.png</t>
-  </si>
-  <si>
     <t>FTU Institute of Enterprise Training and Consulting</t>
   </si>
   <si>
@@ -1409,6 +1373,9 @@
   </si>
   <si>
     <t>National Population Data Center - Police Department of Administrative Management of Social Relations</t>
+  </si>
+  <si>
+    <t>"nan"</t>
   </si>
 </sst>
 </file>
@@ -1792,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A65"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1858,6 +1825,9 @@
       <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="D2" t="s">
+        <v>451</v>
+      </c>
       <c r="E2" t="s">
         <v>126</v>
       </c>
@@ -1902,6 +1872,9 @@
       <c r="C3" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="D3" t="s">
+        <v>451</v>
+      </c>
       <c r="E3" t="s">
         <v>168</v>
       </c>
@@ -1946,6 +1919,9 @@
       <c r="C4" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="D4" t="s">
+        <v>451</v>
+      </c>
       <c r="E4" t="s">
         <v>167</v>
       </c>
@@ -1990,6 +1966,9 @@
       <c r="C5" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="D5" t="s">
+        <v>451</v>
+      </c>
       <c r="E5" t="s">
         <v>120</v>
       </c>
@@ -2034,6 +2013,9 @@
       <c r="C6" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="D6" t="s">
+        <v>451</v>
+      </c>
       <c r="E6" t="s">
         <v>166</v>
       </c>
@@ -2078,6 +2060,9 @@
       <c r="C7" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="D7" t="s">
+        <v>451</v>
+      </c>
       <c r="E7" t="s">
         <v>139</v>
       </c>
@@ -2117,31 +2102,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>449</v>
+        <v>438</v>
+      </c>
+      <c r="D8" t="s">
+        <v>451</v>
       </c>
       <c r="E8" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="F8" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="G8" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="H8" t="s">
         <v>215</v>
       </c>
       <c r="I8" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="J8" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="K8" s="3">
         <v>45626</v>
@@ -2153,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -2166,6 +2151,9 @@
       <c r="C9" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="D9" t="s">
+        <v>451</v>
+      </c>
       <c r="E9" t="s">
         <v>165</v>
       </c>
@@ -2210,6 +2198,9 @@
       <c r="C10" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="D10" t="s">
+        <v>451</v>
+      </c>
       <c r="E10" t="s">
         <v>161</v>
       </c>
@@ -2254,6 +2245,9 @@
       <c r="C11" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="D11" t="s">
+        <v>451</v>
+      </c>
       <c r="E11" t="s">
         <v>142</v>
       </c>
@@ -2298,6 +2292,9 @@
       <c r="C12" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D12" t="s">
+        <v>451</v>
+      </c>
       <c r="E12" t="s">
         <v>164</v>
       </c>
@@ -2342,6 +2339,9 @@
       <c r="C13" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="D13" t="s">
+        <v>451</v>
+      </c>
       <c r="E13" t="s">
         <v>141</v>
       </c>
@@ -2386,6 +2386,9 @@
       <c r="C14" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="D14" t="s">
+        <v>451</v>
+      </c>
       <c r="E14" t="s">
         <v>163</v>
       </c>
@@ -2425,31 +2428,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>436</v>
+        <v>427</v>
+      </c>
+      <c r="D15" t="s">
+        <v>451</v>
       </c>
       <c r="E15" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F15" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G15" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="H15" t="s">
         <v>215</v>
       </c>
       <c r="I15" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="J15" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="K15" s="3">
         <v>45580</v>
@@ -2461,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2474,6 +2477,9 @@
       <c r="C16" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="D16" t="s">
+        <v>451</v>
+      </c>
       <c r="E16" t="s">
         <v>162</v>
       </c>
@@ -2518,6 +2524,9 @@
       <c r="C17" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="D17" t="s">
+        <v>451</v>
+      </c>
       <c r="E17" t="s">
         <v>140</v>
       </c>
@@ -2562,6 +2571,9 @@
       <c r="C18" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="D18" t="s">
+        <v>451</v>
+      </c>
       <c r="E18" t="s">
         <v>160</v>
       </c>
@@ -2601,31 +2613,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
+      </c>
+      <c r="D19" t="s">
+        <v>451</v>
       </c>
       <c r="E19" t="s">
         <v>369</v>
       </c>
       <c r="F19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G19" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H19" t="s">
         <v>215</v>
       </c>
       <c r="I19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J19" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K19" s="3">
         <v>45563</v>
@@ -2650,6 +2662,9 @@
       <c r="C20" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="D20" t="s">
+        <v>451</v>
+      </c>
       <c r="E20" t="s">
         <v>137</v>
       </c>
@@ -2694,6 +2709,9 @@
       <c r="C21" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="D21" t="s">
+        <v>451</v>
+      </c>
       <c r="E21" t="s">
         <v>138</v>
       </c>
@@ -2736,16 +2754,16 @@
         <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
+      </c>
+      <c r="D22" t="s">
+        <v>451</v>
       </c>
       <c r="E22" t="s">
         <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G22" t="s">
         <v>181</v>
@@ -2754,10 +2772,10 @@
         <v>215</v>
       </c>
       <c r="I22" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J22" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K22" s="3">
         <v>45560</v>
@@ -2777,31 +2795,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" t="s">
+        <v>451</v>
+      </c>
+      <c r="E23" t="s">
         <v>388</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="F23" t="s">
         <v>389</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>390</v>
-      </c>
-      <c r="F23" t="s">
-        <v>391</v>
-      </c>
-      <c r="G23" t="s">
-        <v>392</v>
       </c>
       <c r="H23" t="s">
         <v>215</v>
       </c>
       <c r="I23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K23" s="3">
         <v>45556</v>
@@ -2813,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -2826,6 +2844,9 @@
       <c r="C24" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="D24" t="s">
+        <v>451</v>
+      </c>
       <c r="E24" t="s">
         <v>135</v>
       </c>
@@ -2870,6 +2891,9 @@
       <c r="C25" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="D25" t="s">
+        <v>451</v>
+      </c>
       <c r="E25" t="s">
         <v>136</v>
       </c>
@@ -2909,31 +2933,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D26" t="s">
+        <v>451</v>
+      </c>
+      <c r="E26" t="s">
         <v>395</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="F26" t="s">
         <v>396</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="G26" t="s">
         <v>397</v>
-      </c>
-      <c r="E26" t="s">
-        <v>398</v>
-      </c>
-      <c r="F26" t="s">
-        <v>399</v>
-      </c>
-      <c r="G26" t="s">
-        <v>400</v>
       </c>
       <c r="H26" t="s">
         <v>215</v>
       </c>
       <c r="I26" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J26" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K26" s="3">
         <v>45550</v>
@@ -2945,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2953,31 +2977,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
+      </c>
+      <c r="D27" t="s">
+        <v>451</v>
       </c>
       <c r="E27" t="s">
         <v>135</v>
       </c>
       <c r="F27" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G27" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H27" t="s">
         <v>215</v>
       </c>
       <c r="I27" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="J27" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K27" s="3">
         <v>45550</v>
@@ -2997,43 +3021,43 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>457</v>
+        <v>445</v>
+      </c>
+      <c r="D28" t="s">
+        <v>451</v>
       </c>
       <c r="E28" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="F28" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G28" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="H28" t="s">
         <v>215</v>
       </c>
       <c r="I28" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="J28" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="K28" s="3">
         <v>45550</v>
       </c>
       <c r="L28" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -3046,6 +3070,9 @@
       <c r="C29" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D29" t="s">
+        <v>451</v>
+      </c>
       <c r="E29" t="s">
         <v>159</v>
       </c>
@@ -3090,6 +3117,9 @@
       <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="D30" t="s">
+        <v>451</v>
+      </c>
       <c r="E30" t="s">
         <v>132</v>
       </c>
@@ -3134,6 +3164,9 @@
       <c r="C31" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="D31" t="s">
+        <v>451</v>
+      </c>
       <c r="E31" t="s">
         <v>133</v>
       </c>
@@ -3176,28 +3209,28 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>412</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
+      </c>
+      <c r="D32" t="s">
+        <v>451</v>
       </c>
       <c r="E32" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F32" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G32" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H32" t="s">
         <v>215</v>
       </c>
       <c r="I32" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="J32" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K32" s="3">
         <v>45543</v>
@@ -3209,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -3222,6 +3255,9 @@
       <c r="C33" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="D33" t="s">
+        <v>451</v>
+      </c>
       <c r="E33" t="s">
         <v>134</v>
       </c>
@@ -3266,6 +3302,9 @@
       <c r="C34" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="D34" t="s">
+        <v>451</v>
+      </c>
       <c r="E34" t="s">
         <v>158</v>
       </c>
@@ -3305,31 +3344,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>443</v>
+        <v>433</v>
+      </c>
+      <c r="D35" t="s">
+        <v>451</v>
       </c>
       <c r="E35" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F35" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G35" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="H35" t="s">
         <v>215</v>
       </c>
       <c r="I35" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J35" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="K35" s="3">
         <v>45540</v>
@@ -3341,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -3354,6 +3393,9 @@
       <c r="C36" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="D36" t="s">
+        <v>451</v>
+      </c>
       <c r="E36" t="s">
         <v>157</v>
       </c>
@@ -3398,6 +3440,9 @@
       <c r="C37" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="D37" t="s">
+        <v>451</v>
+      </c>
       <c r="E37" t="s">
         <v>131</v>
       </c>
@@ -3442,6 +3487,9 @@
       <c r="C38" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="D38" t="s">
+        <v>451</v>
+      </c>
       <c r="E38" t="s">
         <v>129</v>
       </c>
@@ -3486,6 +3534,9 @@
       <c r="C39" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="D39" t="s">
+        <v>451</v>
+      </c>
       <c r="E39" t="s">
         <v>130</v>
       </c>
@@ -3530,6 +3581,9 @@
       <c r="C40" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="D40" t="s">
+        <v>451</v>
+      </c>
       <c r="E40" t="s">
         <v>127</v>
       </c>
@@ -3574,6 +3628,9 @@
       <c r="C41" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="D41" t="s">
+        <v>451</v>
+      </c>
       <c r="E41" t="s">
         <v>128</v>
       </c>
@@ -3618,6 +3675,9 @@
       <c r="C42" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="D42" t="s">
+        <v>451</v>
+      </c>
       <c r="E42" t="s">
         <v>125</v>
       </c>
@@ -3662,6 +3722,9 @@
       <c r="C43" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="D43" t="s">
+        <v>451</v>
+      </c>
       <c r="E43" t="s">
         <v>123</v>
       </c>
@@ -3706,6 +3769,9 @@
       <c r="C44" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="D44" t="s">
+        <v>451</v>
+      </c>
       <c r="E44" t="s">
         <v>124</v>
       </c>
@@ -3750,6 +3816,9 @@
       <c r="C45" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D45" t="s">
+        <v>451</v>
+      </c>
       <c r="E45" t="s">
         <v>155</v>
       </c>
@@ -3794,6 +3863,9 @@
       <c r="C46" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="D46" t="s">
+        <v>451</v>
+      </c>
       <c r="E46" t="s">
         <v>154</v>
       </c>
@@ -3838,6 +3910,9 @@
       <c r="C47" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="D47" t="s">
+        <v>451</v>
+      </c>
       <c r="E47" t="s">
         <v>121</v>
       </c>
@@ -3882,6 +3957,9 @@
       <c r="C48" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="D48" t="s">
+        <v>451</v>
+      </c>
       <c r="E48" t="s">
         <v>153</v>
       </c>
@@ -3926,6 +4004,9 @@
       <c r="C49" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="D49" t="s">
+        <v>451</v>
+      </c>
       <c r="E49" t="s">
         <v>152</v>
       </c>
@@ -3970,6 +4051,9 @@
       <c r="C50" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="D50" t="s">
+        <v>451</v>
+      </c>
       <c r="E50" t="s">
         <v>143</v>
       </c>
@@ -4014,6 +4098,9 @@
       <c r="C51" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="D51" t="s">
+        <v>451</v>
+      </c>
       <c r="E51" t="s">
         <v>151</v>
       </c>
@@ -4058,6 +4145,9 @@
       <c r="C52" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="D52" t="s">
+        <v>451</v>
+      </c>
       <c r="E52" t="s">
         <v>118</v>
       </c>
@@ -4102,6 +4192,9 @@
       <c r="C53" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="D53" t="s">
+        <v>451</v>
+      </c>
       <c r="E53" t="s">
         <v>119</v>
       </c>
@@ -4146,6 +4239,9 @@
       <c r="C54" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="D54" t="s">
+        <v>451</v>
+      </c>
       <c r="E54" t="s">
         <v>122</v>
       </c>
@@ -4190,6 +4286,9 @@
       <c r="C55" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="D55" t="s">
+        <v>451</v>
+      </c>
       <c r="E55" t="s">
         <v>122</v>
       </c>
@@ -4234,14 +4333,14 @@
       <c r="C56" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" t="s">
+        <v>451</v>
+      </c>
+      <c r="E56" t="s">
         <v>382</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>383</v>
-      </c>
-      <c r="F56" t="s">
-        <v>384</v>
       </c>
       <c r="G56" t="s">
         <v>181</v>
@@ -4250,10 +4349,10 @@
         <v>215</v>
       </c>
       <c r="I56" t="s">
+        <v>384</v>
+      </c>
+      <c r="J56" t="s">
         <v>385</v>
-      </c>
-      <c r="J56" t="s">
-        <v>386</v>
       </c>
       <c r="K56" s="3">
         <v>45383</v>
@@ -4265,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -4278,6 +4377,9 @@
       <c r="C57" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="D57" t="s">
+        <v>451</v>
+      </c>
       <c r="E57" t="s">
         <v>150</v>
       </c>
@@ -4322,6 +4424,9 @@
       <c r="C58" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="D58" t="s">
+        <v>451</v>
+      </c>
       <c r="E58" t="s">
         <v>156</v>
       </c>
@@ -4366,6 +4471,9 @@
       <c r="C59" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="D59" t="s">
+        <v>451</v>
+      </c>
       <c r="E59" t="s">
         <v>149</v>
       </c>
@@ -4410,6 +4518,9 @@
       <c r="C60" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="D60" t="s">
+        <v>451</v>
+      </c>
       <c r="E60" t="s">
         <v>148</v>
       </c>
@@ -4454,6 +4565,9 @@
       <c r="C61" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="D61" t="s">
+        <v>451</v>
+      </c>
       <c r="E61" t="s">
         <v>146</v>
       </c>
@@ -4498,6 +4612,9 @@
       <c r="C62" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="D62" t="s">
+        <v>451</v>
+      </c>
       <c r="E62" t="s">
         <v>147</v>
       </c>
@@ -4542,6 +4659,9 @@
       <c r="C63" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="D63" t="s">
+        <v>451</v>
+      </c>
       <c r="E63" t="s">
         <v>145</v>
       </c>
@@ -4586,6 +4706,9 @@
       <c r="C64" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="D64" t="s">
+        <v>451</v>
+      </c>
       <c r="E64" t="s">
         <v>144</v>
       </c>
@@ -4625,37 +4748,37 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
+      </c>
+      <c r="D65" t="s">
+        <v>451</v>
       </c>
       <c r="E65" t="s">
         <v>142</v>
       </c>
       <c r="F65" t="s">
+        <v>402</v>
+      </c>
+      <c r="G65" t="s">
+        <v>403</v>
+      </c>
+      <c r="H65" t="s">
+        <v>404</v>
+      </c>
+      <c r="I65" t="s">
+        <v>405</v>
+      </c>
+      <c r="J65" t="s">
         <v>406</v>
-      </c>
-      <c r="G65" t="s">
-        <v>407</v>
-      </c>
-      <c r="H65" t="s">
-        <v>408</v>
-      </c>
-      <c r="I65" t="s">
-        <v>409</v>
-      </c>
-      <c r="J65" t="s">
-        <v>410</v>
       </c>
       <c r="K65" s="3">
         <v>45101</v>
       </c>
       <c r="L65" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N65" t="b">
         <v>0</v>
@@ -4722,28 +4845,16 @@
     <hyperlink ref="C4" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="C3" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="C56" r:id="rId53" xr:uid="{ABCF22FD-C778-8846-8DEB-711A9D683817}"/>
-    <hyperlink ref="D56" r:id="rId54" xr:uid="{BD9D1885-C7B7-A944-B3A1-450D36458816}"/>
-    <hyperlink ref="C23" r:id="rId55" xr:uid="{55185A09-5735-6649-BABF-0816070F3168}"/>
-    <hyperlink ref="D23" r:id="rId56" xr:uid="{D59A21DC-4177-8740-9782-8B38E05AA1AE}"/>
-    <hyperlink ref="C26" r:id="rId57" xr:uid="{5F3C766B-9ED8-914C-B6DE-E6B338BE2E97}"/>
-    <hyperlink ref="D26" r:id="rId58" xr:uid="{E89CA8FD-DFD2-464D-8450-2E372F5A9F1B}"/>
-    <hyperlink ref="C65" r:id="rId59" xr:uid="{2255F998-3898-8F48-AD2A-34696217CBC1}"/>
-    <hyperlink ref="D65" r:id="rId60" xr:uid="{ED15C1A7-A7E1-5A43-9CEB-1D3F1EEF702D}"/>
-    <hyperlink ref="D32" r:id="rId61" xr:uid="{25ADB115-BD05-5844-9299-E217439DC496}"/>
-    <hyperlink ref="C27" r:id="rId62" xr:uid="{C2DCC9D1-9FD3-4E4B-A483-65EF0933B417}"/>
-    <hyperlink ref="D27" r:id="rId63" xr:uid="{C1198FED-0D96-9C4B-911F-0C09C3D76CDC}"/>
-    <hyperlink ref="C19" r:id="rId64" xr:uid="{69CF878A-1E7D-BE43-A0EC-9F15A5B157E9}"/>
-    <hyperlink ref="D19" r:id="rId65" xr:uid="{5677D72C-F5EC-4F43-BD55-B31F3F90FF12}"/>
-    <hyperlink ref="C22" r:id="rId66" xr:uid="{13A98C82-AA5C-C24C-BBEB-84339DD1E4E3}"/>
-    <hyperlink ref="D22" r:id="rId67" xr:uid="{0A452907-7D9E-994D-99C0-ED511D50397D}"/>
-    <hyperlink ref="C15" r:id="rId68" xr:uid="{FCF67B6E-07E5-1B42-B663-642D9E0AE6A0}"/>
-    <hyperlink ref="D15" r:id="rId69" xr:uid="{4A8550B3-0EF3-B148-B03E-79573538743C}"/>
-    <hyperlink ref="C35" r:id="rId70" xr:uid="{1B709F9C-0958-A14C-B679-88655EECFD9B}"/>
-    <hyperlink ref="D35" r:id="rId71" xr:uid="{29AC44A3-D5F4-F245-B4B9-3A621B28CF33}"/>
-    <hyperlink ref="C8" r:id="rId72" xr:uid="{E913E91F-CB08-2841-8D49-8CDB71099910}"/>
-    <hyperlink ref="D8" r:id="rId73" xr:uid="{E83482D8-5FE0-B54D-BD3C-01206A9FC3D7}"/>
-    <hyperlink ref="C28" r:id="rId74" xr:uid="{6FEBAECD-F56C-B74B-A228-B4CA9B397B8C}"/>
-    <hyperlink ref="D28" r:id="rId75" xr:uid="{6B79DD9D-B65A-0E4C-A209-3973B3A4E715}"/>
+    <hyperlink ref="C23" r:id="rId54" xr:uid="{55185A09-5735-6649-BABF-0816070F3168}"/>
+    <hyperlink ref="C26" r:id="rId55" xr:uid="{5F3C766B-9ED8-914C-B6DE-E6B338BE2E97}"/>
+    <hyperlink ref="C65" r:id="rId56" xr:uid="{2255F998-3898-8F48-AD2A-34696217CBC1}"/>
+    <hyperlink ref="C27" r:id="rId57" xr:uid="{C2DCC9D1-9FD3-4E4B-A483-65EF0933B417}"/>
+    <hyperlink ref="C19" r:id="rId58" xr:uid="{69CF878A-1E7D-BE43-A0EC-9F15A5B157E9}"/>
+    <hyperlink ref="C22" r:id="rId59" xr:uid="{13A98C82-AA5C-C24C-BBEB-84339DD1E4E3}"/>
+    <hyperlink ref="C15" r:id="rId60" xr:uid="{FCF67B6E-07E5-1B42-B663-642D9E0AE6A0}"/>
+    <hyperlink ref="C35" r:id="rId61" xr:uid="{1B709F9C-0958-A14C-B679-88655EECFD9B}"/>
+    <hyperlink ref="C8" r:id="rId62" xr:uid="{E913E91F-CB08-2841-8D49-8CDB71099910}"/>
+    <hyperlink ref="C28" r:id="rId63" xr:uid="{6FEBAECD-F56C-B74B-A228-B4CA9B397B8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/opportunities.xlsx
+++ b/opportunities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Apple/Desktop/ivan-assets/StartupPost/awesome-startup-opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BEECC4-28BA-234C-AA6D-E7D80BC8C739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAF781F-F301-3A45-81DD-BAB9D02FFEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="520" windowWidth="21140" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="459">
   <si>
     <t>id</t>
   </si>
@@ -1376,6 +1376,27 @@
   </si>
   <si>
     <t>"nan"</t>
+  </si>
+  <si>
+    <t>Want your post to be pinned?</t>
+  </si>
+  <si>
+    <t>https://forms.gle/E66yeofEtRiHgRT16</t>
+  </si>
+  <si>
+    <t>StartupPost</t>
+  </si>
+  <si>
+    <t>['All']</t>
+  </si>
+  <si>
+    <t>Consider sponsoring the StartupPost project, we will give you a pinned slot!</t>
+  </si>
+  <si>
+    <t>Sponsoring</t>
+  </si>
+  <si>
+    <t>Startup Post</t>
   </si>
 </sst>
 </file>
@@ -1757,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1817,87 +1838,87 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>453</v>
       </c>
       <c r="D2" t="s">
         <v>451</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>454</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>455</v>
       </c>
       <c r="G2" t="s">
         <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I2" t="s">
         <v>242</v>
       </c>
       <c r="J2" t="s">
-        <v>283</v>
+        <v>456</v>
       </c>
       <c r="K2" s="3">
-        <v>45686</v>
+        <v>46020</v>
       </c>
       <c r="L2" t="s">
-        <v>328</v>
+        <v>457</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>126</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>451</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="H3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I3" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="J3" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="K3" s="3">
-        <v>45687</v>
+        <v>45686</v>
       </c>
       <c r="L3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -1906,42 +1927,42 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
         <v>451</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H4" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="I4" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="J4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K4" s="3">
-        <v>45688</v>
+        <v>45687</v>
       </c>
       <c r="L4" t="s">
         <v>329</v>
@@ -1953,274 +1974,274 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
         <v>451</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="H5" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="I5" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="J5" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="K5" s="3">
-        <v>45651</v>
+        <v>45688</v>
       </c>
       <c r="L5" t="s">
         <v>329</v>
       </c>
-      <c r="M5" t="s">
-        <v>332</v>
+      <c r="M5" t="b">
+        <v>0</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
         <v>451</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I6" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="J6" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="K6" s="3">
-        <v>45634</v>
+        <v>45651</v>
       </c>
       <c r="L6" t="s">
         <v>329</v>
       </c>
       <c r="M6" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>379</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
         <v>451</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="F7" t="s">
         <v>172</v>
       </c>
       <c r="G7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I7" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="J7" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="K7" s="3">
-        <v>45626</v>
+        <v>45634</v>
       </c>
       <c r="L7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>437</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>438</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
         <v>451</v>
       </c>
       <c r="E8" t="s">
-        <v>439</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
-        <v>440</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>441</v>
+        <v>198</v>
       </c>
       <c r="H8" t="s">
         <v>215</v>
       </c>
       <c r="I8" t="s">
-        <v>442</v>
+        <v>238</v>
       </c>
       <c r="J8" t="s">
-        <v>443</v>
+        <v>296</v>
       </c>
       <c r="K8" s="3">
         <v>45626</v>
       </c>
       <c r="L8" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="M8" t="s">
+        <v>344</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>439</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>437</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>438</v>
       </c>
       <c r="D9" t="s">
         <v>451</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>439</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>440</v>
       </c>
       <c r="G9" t="s">
-        <v>211</v>
+        <v>441</v>
       </c>
       <c r="H9" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="I9" t="s">
-        <v>264</v>
+        <v>442</v>
       </c>
       <c r="J9" t="s">
-        <v>323</v>
+        <v>443</v>
       </c>
       <c r="K9" s="3">
-        <v>45616</v>
+        <v>45626</v>
       </c>
       <c r="L9" t="s">
-        <v>329</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>165</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
         <v>451</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
         <v>211</v>
       </c>
       <c r="H10" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I10" t="s">
         <v>264</v>
       </c>
       <c r="J10" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K10" s="3">
-        <v>45610</v>
+        <v>45616</v>
       </c>
       <c r="L10" t="s">
         <v>329</v>
@@ -2232,86 +2253,86 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
         <v>451</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G11" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="H11" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="I11" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="J11" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="K11" s="3">
-        <v>45599</v>
+        <v>45610</v>
       </c>
       <c r="L11" t="s">
         <v>329</v>
       </c>
-      <c r="M11" t="s">
-        <v>345</v>
+      <c r="M11" t="b">
+        <v>0</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
         <v>451</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H12" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="I12" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J12" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="K12" s="3">
         <v>45599</v>
@@ -2320,98 +2341,98 @@
         <v>329</v>
       </c>
       <c r="M12" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
         <v>451</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
         <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H13" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="I13" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J13" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="K13" s="3">
-        <v>45580</v>
+        <v>45599</v>
       </c>
       <c r="L13" t="s">
-        <v>327</v>
-      </c>
-      <c r="M13" t="b">
-        <v>0</v>
+        <v>329</v>
+      </c>
+      <c r="M13" t="s">
+        <v>360</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>370</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
         <v>451</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G14" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="H14" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="I14" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="J14" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="K14" s="3">
         <v>45580</v>
       </c>
       <c r="L14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -2420,39 +2441,39 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>426</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>427</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
         <v>451</v>
       </c>
       <c r="E15" t="s">
-        <v>428</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s">
-        <v>424</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>429</v>
+        <v>204</v>
       </c>
       <c r="H15" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="I15" t="s">
-        <v>430</v>
+        <v>272</v>
       </c>
       <c r="J15" t="s">
-        <v>431</v>
+        <v>321</v>
       </c>
       <c r="K15" s="3">
         <v>45580</v>
@@ -2460,275 +2481,275 @@
       <c r="L15" t="s">
         <v>330</v>
       </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
       <c r="N15" t="b">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>428</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>426</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>111</v>
+        <v>427</v>
       </c>
       <c r="D16" t="s">
         <v>451</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>428</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>424</v>
       </c>
       <c r="G16" t="s">
-        <v>211</v>
+        <v>429</v>
       </c>
       <c r="H16" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="I16" t="s">
-        <v>271</v>
+        <v>430</v>
       </c>
       <c r="J16" t="s">
-        <v>320</v>
+        <v>431</v>
       </c>
       <c r="K16" s="3">
-        <v>45576</v>
+        <v>45580</v>
       </c>
       <c r="L16" t="s">
-        <v>329</v>
-      </c>
-      <c r="M16" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>162</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
         <v>451</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="H17" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I17" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="J17" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="K17" s="3">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="L17" t="s">
-        <v>327</v>
-      </c>
-      <c r="M17" t="b">
-        <v>0</v>
+        <v>329</v>
+      </c>
+      <c r="M17" t="s">
+        <v>346</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>451</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
         <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="H18" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="I18" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="J18" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="K18" s="3">
         <v>45569</v>
       </c>
       <c r="L18" t="s">
-        <v>329</v>
-      </c>
-      <c r="M18" t="s">
-        <v>350</v>
+        <v>327</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>419</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>420</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
         <v>451</v>
       </c>
       <c r="E19" t="s">
-        <v>369</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
-        <v>396</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>421</v>
+        <v>213</v>
       </c>
       <c r="H19" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="I19" t="s">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="J19" t="s">
-        <v>422</v>
+        <v>318</v>
       </c>
       <c r="K19" s="3">
-        <v>45563</v>
+        <v>45569</v>
       </c>
       <c r="L19" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="M19" t="s">
+        <v>350</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>369</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>419</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
+        <v>420</v>
       </c>
       <c r="D20" t="s">
         <v>451</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>369</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>396</v>
       </c>
       <c r="G20" t="s">
-        <v>196</v>
+        <v>421</v>
       </c>
       <c r="H20" t="s">
         <v>215</v>
       </c>
       <c r="I20" t="s">
-        <v>253</v>
+        <v>398</v>
       </c>
       <c r="J20" t="s">
-        <v>294</v>
+        <v>422</v>
       </c>
       <c r="K20" s="3">
-        <v>45560</v>
+        <v>45563</v>
       </c>
       <c r="L20" t="s">
-        <v>327</v>
-      </c>
-      <c r="M20" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>137</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
         <v>451</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H21" t="s">
         <v>215</v>
       </c>
       <c r="I21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K21" s="3">
         <v>45560</v>
@@ -2737,180 +2758,180 @@
         <v>327</v>
       </c>
       <c r="M21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>368</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>423</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
         <v>451</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F22" t="s">
-        <v>424</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="H22" t="s">
         <v>215</v>
       </c>
       <c r="I22" t="s">
-        <v>398</v>
+        <v>254</v>
       </c>
       <c r="J22" t="s">
-        <v>425</v>
+        <v>295</v>
       </c>
       <c r="K22" s="3">
         <v>45560</v>
       </c>
       <c r="L22" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="M22" t="s">
+        <v>343</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>137</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>386</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="D23" t="s">
         <v>451</v>
       </c>
       <c r="E23" t="s">
-        <v>388</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="G23" t="s">
-        <v>390</v>
+        <v>181</v>
       </c>
       <c r="H23" t="s">
         <v>215</v>
       </c>
       <c r="I23" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="J23" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="K23" s="3">
-        <v>45556</v>
+        <v>45560</v>
       </c>
       <c r="L23" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>450</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>386</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>83</v>
+        <v>387</v>
       </c>
       <c r="D24" t="s">
         <v>451</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>388</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>389</v>
       </c>
       <c r="G24" t="s">
-        <v>194</v>
+        <v>390</v>
       </c>
       <c r="H24" t="s">
         <v>215</v>
       </c>
       <c r="I24" t="s">
-        <v>251</v>
+        <v>391</v>
       </c>
       <c r="J24" t="s">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="K24" s="3">
-        <v>45550</v>
+        <v>45556</v>
       </c>
       <c r="L24" t="s">
-        <v>327</v>
-      </c>
-      <c r="M24" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>135</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
         <v>451</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H25" t="s">
         <v>215</v>
       </c>
       <c r="I25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K25" s="3">
         <v>45550</v>
@@ -2919,89 +2940,92 @@
         <v>327</v>
       </c>
       <c r="M25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>367</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>394</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
         <v>451</v>
       </c>
       <c r="E26" t="s">
-        <v>395</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>396</v>
+        <v>169</v>
       </c>
       <c r="G26" t="s">
-        <v>397</v>
+        <v>195</v>
       </c>
       <c r="H26" t="s">
         <v>215</v>
       </c>
       <c r="I26" t="s">
-        <v>398</v>
+        <v>252</v>
       </c>
       <c r="J26" t="s">
-        <v>399</v>
+        <v>293</v>
       </c>
       <c r="K26" s="3">
         <v>45550</v>
       </c>
       <c r="L26" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="M26" t="s">
+        <v>341</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="D27" t="s">
         <v>451</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>395</v>
       </c>
       <c r="F27" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="G27" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="H27" t="s">
         <v>215</v>
       </c>
       <c r="I27" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="J27" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="K27" s="3">
         <v>45550</v>
@@ -3013,136 +3037,133 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>135</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="D28" t="s">
         <v>451</v>
       </c>
       <c r="E28" t="s">
-        <v>446</v>
+        <v>135</v>
       </c>
       <c r="F28" t="s">
         <v>415</v>
       </c>
       <c r="G28" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="H28" t="s">
         <v>215</v>
       </c>
       <c r="I28" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="J28" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="K28" s="3">
         <v>45550</v>
       </c>
       <c r="L28" t="s">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>446</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>444</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>108</v>
+        <v>445</v>
       </c>
       <c r="D29" t="s">
         <v>451</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>446</v>
       </c>
       <c r="F29" t="s">
-        <v>172</v>
+        <v>415</v>
       </c>
       <c r="G29" t="s">
-        <v>212</v>
+        <v>447</v>
       </c>
       <c r="H29" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="I29" t="s">
-        <v>270</v>
+        <v>448</v>
       </c>
       <c r="J29" t="s">
-        <v>317</v>
+        <v>449</v>
       </c>
       <c r="K29" s="3">
-        <v>45546</v>
+        <v>45550</v>
       </c>
       <c r="L29" t="s">
-        <v>329</v>
-      </c>
-      <c r="M29" t="b">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>378</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
         <v>451</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G30" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="H30" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="I30" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="J30" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="K30" s="3">
-        <v>45543</v>
+        <v>45546</v>
       </c>
       <c r="L30" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M30" t="b">
         <v>0</v>
@@ -3151,39 +3172,39 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
         <v>451</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K31" s="3">
         <v>45543</v>
@@ -3191,545 +3212,545 @@
       <c r="L31" t="s">
         <v>327</v>
       </c>
-      <c r="M31" t="s">
-        <v>339</v>
+      <c r="M31" t="b">
+        <v>0</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
-        <v>408</v>
+      <c r="C32" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D32" t="s">
         <v>451</v>
       </c>
       <c r="E32" t="s">
-        <v>409</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>396</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>410</v>
+        <v>192</v>
       </c>
       <c r="H32" t="s">
         <v>215</v>
       </c>
       <c r="I32" t="s">
-        <v>411</v>
+        <v>249</v>
       </c>
       <c r="J32" t="s">
-        <v>412</v>
+        <v>290</v>
       </c>
       <c r="K32" s="3">
         <v>45543</v>
       </c>
       <c r="L32" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="M32" t="s">
+        <v>339</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>408</v>
       </c>
       <c r="D33" t="s">
         <v>451</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>409</v>
       </c>
       <c r="F33" t="s">
-        <v>172</v>
+        <v>396</v>
       </c>
       <c r="G33" t="s">
-        <v>193</v>
+        <v>410</v>
       </c>
       <c r="H33" t="s">
         <v>215</v>
       </c>
       <c r="I33" t="s">
-        <v>250</v>
+        <v>411</v>
       </c>
       <c r="J33" t="s">
-        <v>291</v>
+        <v>412</v>
       </c>
       <c r="K33" s="3">
-        <v>45542</v>
+        <v>45543</v>
       </c>
       <c r="L33" t="s">
-        <v>327</v>
-      </c>
-      <c r="M33" t="b">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>134</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
         <v>451</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
       </c>
       <c r="G34" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="H34" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="I34" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="J34" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="K34" s="3">
-        <v>45541</v>
+        <v>45542</v>
       </c>
       <c r="L34" t="s">
-        <v>329</v>
-      </c>
-      <c r="M34" t="s">
-        <v>359</v>
+        <v>327</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>432</v>
+        <v>55</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>433</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
         <v>451</v>
       </c>
       <c r="E35" t="s">
-        <v>434</v>
+        <v>158</v>
       </c>
       <c r="F35" t="s">
-        <v>415</v>
+        <v>172</v>
       </c>
       <c r="G35" t="s">
-        <v>435</v>
+        <v>211</v>
       </c>
       <c r="H35" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="I35" t="s">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="J35" t="s">
-        <v>436</v>
+        <v>316</v>
       </c>
       <c r="K35" s="3">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="L35" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="M35" t="s">
+        <v>359</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>434</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>432</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>106</v>
+        <v>433</v>
       </c>
       <c r="D36" t="s">
         <v>451</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>434</v>
       </c>
       <c r="F36" t="s">
-        <v>175</v>
+        <v>415</v>
       </c>
       <c r="G36" t="s">
-        <v>210</v>
+        <v>435</v>
       </c>
       <c r="H36" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="I36" t="s">
-        <v>264</v>
+        <v>398</v>
       </c>
       <c r="J36" t="s">
-        <v>315</v>
+        <v>436</v>
       </c>
       <c r="K36" s="3">
-        <v>45535</v>
+        <v>45540</v>
       </c>
       <c r="L36" t="s">
-        <v>329</v>
-      </c>
-      <c r="M36" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>157</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
         <v>451</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G37" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H37" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="I37" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="J37" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="K37" s="3">
-        <v>45534</v>
+        <v>45535</v>
       </c>
       <c r="L37" t="s">
-        <v>327</v>
-      </c>
-      <c r="M37" t="b">
-        <v>0</v>
+        <v>329</v>
+      </c>
+      <c r="M37" t="s">
+        <v>358</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
         <v>451</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F38" t="s">
         <v>172</v>
       </c>
       <c r="G38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H38" t="s">
         <v>215</v>
       </c>
       <c r="I38" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J38" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K38" s="3">
-        <v>45511</v>
+        <v>45534</v>
       </c>
       <c r="L38" t="s">
         <v>327</v>
       </c>
-      <c r="M38" t="s">
-        <v>337</v>
+      <c r="M38" t="b">
+        <v>0</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>363</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
         <v>451</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H39" t="s">
         <v>215</v>
       </c>
       <c r="I39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K39" s="3">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="L39" t="s">
         <v>327</v>
       </c>
       <c r="M39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
         <v>451</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F40" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G40" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H40" t="s">
         <v>215</v>
       </c>
       <c r="I40" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J40" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K40" s="3">
-        <v>45499</v>
+        <v>45505</v>
       </c>
       <c r="L40" t="s">
         <v>327</v>
       </c>
       <c r="M40" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>127</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
         <v>451</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F41" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H41" t="s">
         <v>215</v>
       </c>
       <c r="I41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K41" s="3">
-        <v>45495</v>
+        <v>45499</v>
       </c>
       <c r="L41" t="s">
         <v>327</v>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="s">
+        <v>336</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
         <v>451</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G42" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H42" t="s">
         <v>215</v>
       </c>
       <c r="I42" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="J42" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K42" s="3">
-        <v>45473</v>
+        <v>45495</v>
       </c>
       <c r="L42" t="s">
-        <v>329</v>
-      </c>
-      <c r="M42" t="s">
-        <v>335</v>
+        <v>327</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>362</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s">
         <v>451</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G43" t="s">
         <v>181</v>
@@ -3738,48 +3759,48 @@
         <v>215</v>
       </c>
       <c r="I43" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J43" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K43" s="3">
-        <v>45458</v>
+        <v>45473</v>
       </c>
       <c r="L43" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>123</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
         <v>451</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H44" t="s">
         <v>215</v>
@@ -3788,415 +3809,415 @@
         <v>238</v>
       </c>
       <c r="J44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K44" s="3">
         <v>45458</v>
       </c>
       <c r="L44" t="s">
-        <v>328</v>
-      </c>
-      <c r="M44" t="b">
-        <v>0</v>
+        <v>327</v>
+      </c>
+      <c r="M44" t="s">
+        <v>334</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
         <v>451</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="F45" t="s">
         <v>172</v>
       </c>
       <c r="G45" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="H45" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="I45" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="J45" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="K45" s="3">
-        <v>45453</v>
+        <v>45458</v>
       </c>
       <c r="L45" t="s">
-        <v>329</v>
-      </c>
-      <c r="M45" t="s">
-        <v>352</v>
+        <v>328</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
         <v>451</v>
       </c>
       <c r="E46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F46" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G46" t="s">
         <v>201</v>
       </c>
       <c r="H46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I46" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J46" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K46" s="3">
-        <v>45450</v>
+        <v>45453</v>
       </c>
       <c r="L46" t="s">
         <v>329</v>
       </c>
       <c r="M46" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>377</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
         <v>451</v>
       </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="F47" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G47" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="H47" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="I47" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="J47" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="K47" s="3">
-        <v>45437</v>
+        <v>45450</v>
       </c>
       <c r="L47" t="s">
-        <v>327</v>
-      </c>
-      <c r="M47" t="b">
-        <v>0</v>
+        <v>329</v>
+      </c>
+      <c r="M47" t="s">
+        <v>356</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>121</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
         <v>451</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G48" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H48" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="I48" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="J48" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="K48" s="3">
-        <v>45435</v>
+        <v>45437</v>
       </c>
       <c r="L48" t="s">
-        <v>329</v>
-      </c>
-      <c r="M48" t="s">
-        <v>355</v>
+        <v>327</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
         <v>451</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F49" t="s">
         <v>172</v>
       </c>
       <c r="G49" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I49" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J49" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K49" s="3">
-        <v>45413</v>
+        <v>45435</v>
       </c>
       <c r="L49" t="s">
         <v>329</v>
       </c>
       <c r="M49" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>40</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
         <v>451</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F50" t="s">
         <v>172</v>
       </c>
       <c r="G50" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H50" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="I50" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="J50" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="K50" s="3">
-        <v>45408</v>
+        <v>45413</v>
       </c>
       <c r="L50" t="s">
         <v>329</v>
       </c>
       <c r="M50" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>371</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
         <v>451</v>
       </c>
       <c r="E51" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F51" t="s">
         <v>172</v>
       </c>
       <c r="G51" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H51" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I51" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="J51" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="K51" s="3">
-        <v>45396</v>
+        <v>45408</v>
       </c>
       <c r="L51" t="s">
         <v>329</v>
       </c>
       <c r="M51" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D52" t="s">
         <v>451</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="F52" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G52" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="H52" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="I52" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="J52" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="K52" s="3">
-        <v>45389</v>
+        <v>45396</v>
       </c>
       <c r="L52" t="s">
-        <v>327</v>
-      </c>
-      <c r="M52" t="b">
-        <v>0</v>
+        <v>329</v>
+      </c>
+      <c r="M52" t="s">
+        <v>353</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>118</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
         <v>451</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F53" t="s">
         <v>169</v>
@@ -4208,45 +4229,45 @@
         <v>215</v>
       </c>
       <c r="I53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K53" s="3">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="L53" t="s">
-        <v>328</v>
-      </c>
-      <c r="M53" t="s">
-        <v>331</v>
+        <v>327</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
         <v>451</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G54" t="s">
         <v>181</v>
@@ -4255,36 +4276,36 @@
         <v>215</v>
       </c>
       <c r="I54" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J54" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K54" s="3">
         <v>45383</v>
       </c>
       <c r="L54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M54" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D55" t="s">
         <v>451</v>
@@ -4302,10 +4323,10 @@
         <v>215</v>
       </c>
       <c r="I55" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="J55" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="K55" s="3">
         <v>45383</v>
@@ -4314,33 +4335,33 @@
         <v>329</v>
       </c>
       <c r="M55" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>375</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>380</v>
+        <v>48</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>381</v>
+        <v>99</v>
       </c>
       <c r="D56" t="s">
         <v>451</v>
       </c>
       <c r="E56" t="s">
-        <v>382</v>
+        <v>122</v>
       </c>
       <c r="F56" t="s">
-        <v>383</v>
+        <v>170</v>
       </c>
       <c r="G56" t="s">
         <v>181</v>
@@ -4349,289 +4370,289 @@
         <v>215</v>
       </c>
       <c r="I56" t="s">
-        <v>384</v>
+        <v>265</v>
       </c>
       <c r="J56" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="K56" s="3">
         <v>45383</v>
       </c>
       <c r="L56" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="M56" t="s">
+        <v>352</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>380</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>98</v>
+        <v>381</v>
       </c>
       <c r="D57" t="s">
         <v>451</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
       <c r="F57" t="s">
-        <v>172</v>
+        <v>383</v>
       </c>
       <c r="G57" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="H57" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I57" t="s">
-        <v>264</v>
+        <v>384</v>
       </c>
       <c r="J57" t="s">
-        <v>307</v>
+        <v>385</v>
       </c>
       <c r="K57" s="3">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="L57" t="s">
-        <v>329</v>
-      </c>
-      <c r="M57" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
         <v>451</v>
       </c>
       <c r="E58" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F58" t="s">
         <v>172</v>
       </c>
       <c r="G58" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H58" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I58" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="J58" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K58" s="3">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="L58" t="s">
         <v>329</v>
       </c>
       <c r="M58" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
         <v>451</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F59" t="s">
         <v>172</v>
       </c>
       <c r="G59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H59" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="I59" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="J59" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="K59" s="3">
-        <v>45350</v>
+        <v>45380</v>
       </c>
       <c r="L59" t="s">
         <v>329</v>
       </c>
       <c r="M59" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D60" t="s">
         <v>451</v>
       </c>
       <c r="E60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F60" t="s">
         <v>172</v>
       </c>
       <c r="G60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H60" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I60" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="J60" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K60" s="3">
-        <v>45323</v>
+        <v>45350</v>
       </c>
       <c r="L60" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M60" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>374</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
         <v>451</v>
       </c>
       <c r="E61" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F61" t="s">
         <v>172</v>
       </c>
       <c r="G61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H61" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I61" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J61" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K61" s="3">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="L61" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M61" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D62" t="s">
         <v>451</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F62" t="s">
         <v>172</v>
       </c>
       <c r="G62" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J62" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K62" s="3">
         <v>45322</v>
@@ -4640,221 +4661,269 @@
         <v>329</v>
       </c>
       <c r="M62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s">
         <v>451</v>
       </c>
       <c r="E63" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F63" t="s">
         <v>172</v>
       </c>
       <c r="G63" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H63" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I63" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J63" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K63" s="3">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="L63" t="s">
         <v>329</v>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="s">
+        <v>349</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>145</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D64" t="s">
         <v>451</v>
       </c>
       <c r="E64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F64" t="s">
         <v>172</v>
       </c>
       <c r="G64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H64" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I64" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J64" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K64" s="3">
-        <v>45315</v>
+        <v>45321</v>
       </c>
       <c r="L64" t="s">
         <v>329</v>
       </c>
-      <c r="M64" t="s">
-        <v>347</v>
+      <c r="M64" t="b">
+        <v>0</v>
       </c>
       <c r="N64" t="b">
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" t="s">
+        <v>451</v>
+      </c>
+      <c r="E65" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" t="s">
+        <v>172</v>
+      </c>
+      <c r="G65" t="s">
+        <v>202</v>
+      </c>
+      <c r="H65" t="s">
+        <v>217</v>
+      </c>
+      <c r="I65" t="s">
+        <v>259</v>
+      </c>
+      <c r="J65" t="s">
+        <v>301</v>
+      </c>
+      <c r="K65" s="3">
+        <v>45315</v>
+      </c>
+      <c r="L65" t="s">
+        <v>329</v>
+      </c>
+      <c r="M65" t="s">
+        <v>347</v>
+      </c>
+      <c r="N65" t="b">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>400</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D65" t="s">
-        <v>451</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D66" t="s">
+        <v>451</v>
+      </c>
+      <c r="E66" t="s">
         <v>142</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F66" t="s">
         <v>402</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
         <v>403</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H66" t="s">
         <v>404</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I66" t="s">
         <v>405</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J66" t="s">
         <v>406</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K66" s="3">
         <v>45101</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L66" t="s">
         <v>407</v>
       </c>
-      <c r="N65" t="b">
-        <v>0</v>
-      </c>
-      <c r="O65" t="s">
+      <c r="N66" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O66">
-    <sortCondition descending="1" ref="K1:K66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O67">
+    <sortCondition descending="1" ref="K1:K67"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C53" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C47" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C54" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C43" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C44" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C42" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C40" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C41" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C38" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C39" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C37" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C31" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C33" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C11" r:id="rId25" location="how-to-get-seeded" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C64" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C63" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C61" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C62" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C60" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C59" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C57" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C55" r:id="rId34" location="international-track" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C51" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C49" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C48" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C46" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C58" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C36" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C34" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C29" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C18" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C10" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C16" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C14" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C12" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C9" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C6" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C4" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C3" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C56" r:id="rId53" xr:uid="{ABCF22FD-C778-8846-8DEB-711A9D683817}"/>
-    <hyperlink ref="C23" r:id="rId54" xr:uid="{55185A09-5735-6649-BABF-0816070F3168}"/>
-    <hyperlink ref="C26" r:id="rId55" xr:uid="{5F3C766B-9ED8-914C-B6DE-E6B338BE2E97}"/>
-    <hyperlink ref="C65" r:id="rId56" xr:uid="{2255F998-3898-8F48-AD2A-34696217CBC1}"/>
-    <hyperlink ref="C27" r:id="rId57" xr:uid="{C2DCC9D1-9FD3-4E4B-A483-65EF0933B417}"/>
-    <hyperlink ref="C19" r:id="rId58" xr:uid="{69CF878A-1E7D-BE43-A0EC-9F15A5B157E9}"/>
-    <hyperlink ref="C22" r:id="rId59" xr:uid="{13A98C82-AA5C-C24C-BBEB-84339DD1E4E3}"/>
-    <hyperlink ref="C15" r:id="rId60" xr:uid="{FCF67B6E-07E5-1B42-B663-642D9E0AE6A0}"/>
-    <hyperlink ref="C35" r:id="rId61" xr:uid="{1B709F9C-0958-A14C-B679-88655EECFD9B}"/>
-    <hyperlink ref="C8" r:id="rId62" xr:uid="{E913E91F-CB08-2841-8D49-8CDB71099910}"/>
-    <hyperlink ref="C28" r:id="rId63" xr:uid="{6FEBAECD-F56C-B74B-A228-B4CA9B397B8C}"/>
+    <hyperlink ref="C53" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C54" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C48" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C55" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C44" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C45" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C43" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C41" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C42" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C39" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C40" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C31" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C34" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C8" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C18" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C12" r:id="rId25" location="how-to-get-seeded" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C51" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C65" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C64" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C62" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C63" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C61" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C60" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C58" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C56" r:id="rId34" location="international-track" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C52" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C50" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C49" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C47" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C46" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C59" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C37" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C35" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C30" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C19" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C11" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C17" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C15" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C13" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C10" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C7" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C5" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C4" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C57" r:id="rId53" xr:uid="{ABCF22FD-C778-8846-8DEB-711A9D683817}"/>
+    <hyperlink ref="C24" r:id="rId54" xr:uid="{55185A09-5735-6649-BABF-0816070F3168}"/>
+    <hyperlink ref="C27" r:id="rId55" xr:uid="{5F3C766B-9ED8-914C-B6DE-E6B338BE2E97}"/>
+    <hyperlink ref="C66" r:id="rId56" xr:uid="{2255F998-3898-8F48-AD2A-34696217CBC1}"/>
+    <hyperlink ref="C28" r:id="rId57" xr:uid="{C2DCC9D1-9FD3-4E4B-A483-65EF0933B417}"/>
+    <hyperlink ref="C20" r:id="rId58" xr:uid="{69CF878A-1E7D-BE43-A0EC-9F15A5B157E9}"/>
+    <hyperlink ref="C23" r:id="rId59" xr:uid="{13A98C82-AA5C-C24C-BBEB-84339DD1E4E3}"/>
+    <hyperlink ref="C16" r:id="rId60" xr:uid="{FCF67B6E-07E5-1B42-B663-642D9E0AE6A0}"/>
+    <hyperlink ref="C36" r:id="rId61" xr:uid="{1B709F9C-0958-A14C-B679-88655EECFD9B}"/>
+    <hyperlink ref="C9" r:id="rId62" xr:uid="{E913E91F-CB08-2841-8D49-8CDB71099910}"/>
+    <hyperlink ref="C29" r:id="rId63" xr:uid="{6FEBAECD-F56C-B74B-A228-B4CA9B397B8C}"/>
+    <hyperlink ref="C2" r:id="rId64" xr:uid="{6E531DCC-C4E6-2F44-9E7D-791504D874AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
